--- a/P21_Forecasting_LSTM_Sandra/Figuras.xlsx
+++ b/P21_Forecasting_LSTM_Sandra/Figuras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Dropbox/FIT-UAT-2025-3/MCC_3A_2025_3/TecnicasCienciasComputacionales/P21_Forecasting_LSTM_Sandra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671879B3-47F1-C840-9D6B-84E1A502999D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA0D06-9D4D-E745-8499-4A47F7B71CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="680" windowWidth="29820" windowHeight="19720" xr2:uid="{A3D994DB-BE25-A241-A662-6E0529CC1511}"/>
+    <workbookView xWindow="37440" yWindow="1480" windowWidth="29820" windowHeight="19720" xr2:uid="{A3D994DB-BE25-A241-A662-6E0529CC1511}"/>
   </bookViews>
   <sheets>
     <sheet name="Figura 1" sheetId="1" r:id="rId1"/>
@@ -230,10 +230,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figura 1'!$A$2:$A$42</c:f>
+              <c:f>'Figura 1'!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -356,138 +356,492 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figura 1'!$B$2:$B$42</c:f>
+              <c:f>'Figura 1'!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>21.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>21.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>20.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>20.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74</c:v>
+                  <c:v>20.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>20.71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68</c:v>
+                  <c:v>20.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>20.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46</c:v>
+                  <c:v>20.68</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>20.65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>20.59</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38</c:v>
+                  <c:v>20.47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37</c:v>
+                  <c:v>20.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>20.03</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39</c:v>
+                  <c:v>19.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>20.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38</c:v>
+                  <c:v>20.37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30</c:v>
+                  <c:v>20.46</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>20.66</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49</c:v>
+                  <c:v>20.86</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17</c:v>
+                  <c:v>21.03</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
+                  <c:v>21.11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11</c:v>
+                  <c:v>21.01</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17</c:v>
+                  <c:v>20.78</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69</c:v>
+                  <c:v>20.43</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>61</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25</c:v>
+                  <c:v>19.68</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27</c:v>
+                  <c:v>19.53</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14</c:v>
+                  <c:v>19.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20</c:v>
+                  <c:v>19.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10</c:v>
+                  <c:v>19.12</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4</c:v>
+                  <c:v>18.95</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8</c:v>
+                  <c:v>18.760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>38</c:v>
+                  <c:v>18.64</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37</c:v>
+                  <c:v>18.649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42</c:v>
+                  <c:v>18.78</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12</c:v>
+                  <c:v>18.97</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7</c:v>
+                  <c:v>19.14</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5</c:v>
+                  <c:v>19.32</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10</c:v>
+                  <c:v>19.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.72</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.84</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.96</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20.16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.97</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.89</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.97</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20.94</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21.05</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21.13</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21.24</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21.38</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21.73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>21.79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21.81</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>21.73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>21.37</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20.97</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20.97</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20.99</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>21.23</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21.48</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>21.69</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.79</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.81</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.32</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.56</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22.76</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.22</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23.39</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23.48</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.52</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>23.52</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>23.51</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>23.46</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>23.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,7 +868,7 @@
         <c:axId val="993249024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="41"/>
+          <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -628,14 +982,14 @@
         <c:crossAx val="1021842688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1021842688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="75"/>
-          <c:min val="-20"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2775,10 +3129,10 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2805,16 +3159,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>148165</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>799039</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>232833</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2829,8 +3183,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3450165" y="5524500"/>
-          <a:ext cx="6688668" cy="275167"/>
+          <a:off x="3275539" y="5588000"/>
+          <a:ext cx="8614835" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2866,15 +3220,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>427565</xdr:colOff>
+      <xdr:colOff>332315</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>194734</xdr:rowOff>
+      <xdr:rowOff>115359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>512233</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>67734</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2889,8 +3243,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3729565" y="5825067"/>
-          <a:ext cx="6688668" cy="275167"/>
+          <a:off x="3634315" y="5893859"/>
+          <a:ext cx="8732310" cy="281516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2926,15 +3280,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>696379</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>103718</xdr:rowOff>
+      <xdr:colOff>823378</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>198968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>781047</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444499</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>177802</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2949,8 +3303,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3998379" y="6136218"/>
-          <a:ext cx="6688668" cy="275167"/>
+          <a:off x="4125378" y="6183843"/>
+          <a:ext cx="8701621" cy="324907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2985,79 +3339,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>226481</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347129</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>497416</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>162984</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7882207C-60CC-7645-8497-3CCAC173D9CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10132481" y="5477329"/>
-          <a:ext cx="270935" cy="273655"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C00000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>505879</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>195941</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>776814</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>70453</xdr:rowOff>
+      <xdr:rowOff>118078</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3072,71 +3363,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10411879" y="5783941"/>
-          <a:ext cx="270935" cy="273655"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C00000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>776206</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>103410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>221641</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>177494</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C4D805-FE20-624C-AEFE-7314117957D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10682206" y="6090553"/>
-          <a:ext cx="270935" cy="273655"/>
+          <a:off x="11904129" y="5588000"/>
+          <a:ext cx="129121" cy="308578"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3180,10 +3408,10 @@
       <xdr:rowOff>116416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>677333</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3198,8 +3426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10943166" y="518583"/>
-          <a:ext cx="2942167" cy="275167"/>
+          <a:off x="10943166" y="529166"/>
+          <a:ext cx="3423709" cy="375709"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3227,14 +3455,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Registros</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
             <a:t> de Entrada</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3245,13 +3473,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>215899</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>14817</xdr:rowOff>
+      <xdr:rowOff>189441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>681566</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3266,8 +3494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10947399" y="819150"/>
-          <a:ext cx="2942167" cy="275167"/>
+          <a:off x="10947399" y="1014941"/>
+          <a:ext cx="3451226" cy="350309"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3298,9 +3526,135 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Registros de Salida</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7404</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>191103</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2451BC-C101-1A4D-B24C-90CF6B2CED21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12389904" y="5867400"/>
+          <a:ext cx="129121" cy="308578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>461429</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216356E2-EBCF-DA40-A70E-BB940147232C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12843929" y="6194425"/>
+          <a:ext cx="129121" cy="308578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3313,12 +3667,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.07528</cdr:x>
-      <cdr:y>0.36322</cdr:y>
+      <cdr:x>0.0496</cdr:x>
+      <cdr:y>0.35414</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.0976</cdr:x>
-      <cdr:y>0.36322</cdr:y>
+      <cdr:x>0.06311</cdr:x>
+      <cdr:y>0.35513</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3333,8 +3687,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="887186" y="2315029"/>
-          <a:ext cx="263071" cy="0"/>
+          <a:off x="643714" y="2475898"/>
+          <a:ext cx="175436" cy="6952"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -3365,12 +3719,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.05834</cdr:x>
-      <cdr:y>0.31768</cdr:y>
+      <cdr:x>0.05345</cdr:x>
+      <cdr:y>0.28816</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.13593</cdr:x>
-      <cdr:y>0.46114</cdr:y>
+      <cdr:x>0.13104</cdr:x>
+      <cdr:y>0.43162</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3385,8 +3739,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="687614" y="2024743"/>
-          <a:ext cx="914400" cy="914400"/>
+          <a:off x="693718" y="2014637"/>
+          <a:ext cx="1007072" cy="1002979"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3398,7 +3752,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" kern="1200"/>
-            <a:t>1 Semana</a:t>
+            <a:t>1 hora</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -3406,12 +3760,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.0722</cdr:x>
-      <cdr:y>0.4415</cdr:y>
+      <cdr:x>0.05141</cdr:x>
+      <cdr:y>0.36884</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.07451</cdr:x>
-      <cdr:y>0.80586</cdr:y>
+      <cdr:x>0.05333</cdr:x>
+      <cdr:y>0.7911</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3426,8 +3780,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="850900" y="2813958"/>
-          <a:ext cx="27214" cy="2322285"/>
+          <a:off x="667238" y="2578681"/>
+          <a:ext cx="24912" cy="2952169"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3457,12 +3811,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09683</cdr:x>
-      <cdr:y>0.63792</cdr:y>
+      <cdr:x>0.08023</cdr:x>
+      <cdr:y>0.38134</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.0976</cdr:x>
-      <cdr:y>0.86707</cdr:y>
+      <cdr:x>0.08048</cdr:x>
+      <cdr:y>0.83424</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3477,8 +3831,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="1141186" y="4065815"/>
-          <a:ext cx="9071" cy="1460500"/>
+          <a:off x="1041400" y="2666047"/>
+          <a:ext cx="3139" cy="3166428"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3508,12 +3862,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.11992</cdr:x>
-      <cdr:y>0.4415</cdr:y>
+      <cdr:x>0.1187</cdr:x>
+      <cdr:y>0.38927</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.11992</cdr:x>
-      <cdr:y>0.93965</cdr:y>
+      <cdr:x>0.1187</cdr:x>
+      <cdr:y>0.88742</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3528,8 +3882,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1413329" y="2813958"/>
-          <a:ext cx="0" cy="3175000"/>
+          <a:off x="1540615" y="2721556"/>
+          <a:ext cx="0" cy="3482741"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3559,12 +3913,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.66333</cdr:x>
-      <cdr:y>0.15827</cdr:y>
+      <cdr:x>0.72847</cdr:x>
+      <cdr:y>0.36194</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66487</cdr:x>
-      <cdr:y>0.84287</cdr:y>
+      <cdr:x>0.7297</cdr:x>
+      <cdr:y>0.79564</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3579,8 +3933,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="7817757" y="1008743"/>
-          <a:ext cx="18143" cy="4363357"/>
+          <a:off x="9455150" y="2530475"/>
+          <a:ext cx="15875" cy="3032125"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3610,12 +3964,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.68796</cdr:x>
-      <cdr:y>0.50697</cdr:y>
+      <cdr:x>0.80003</cdr:x>
+      <cdr:y>0.36421</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68873</cdr:x>
-      <cdr:y>0.88272</cdr:y>
+      <cdr:x>0.80186</cdr:x>
+      <cdr:y>0.87591</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3629,9 +3983,9 @@
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8108043" y="3231243"/>
-          <a:ext cx="9071" cy="2394857"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="10383927" y="2546350"/>
+          <a:ext cx="23723" cy="3577429"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3661,12 +4015,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.71105</cdr:x>
-      <cdr:y>0.48847</cdr:y>
+      <cdr:x>0.76609</cdr:x>
+      <cdr:y>0.37948</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.71105</cdr:x>
-      <cdr:y>0.93965</cdr:y>
+      <cdr:x>0.76609</cdr:x>
+      <cdr:y>0.83066</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3681,8 +4035,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8380186" y="3113315"/>
-          <a:ext cx="0" cy="2875643"/>
+          <a:off x="9943377" y="2653065"/>
+          <a:ext cx="0" cy="3154357"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -4071,10 +4425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF271400-20F1-FB49-970E-3B1E56D092DA}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4092,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>32</v>
+        <v>21.41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4100,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>12</v>
+        <v>21.22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4108,7 +4462,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>32</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4116,7 +4470,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>37</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4124,7 +4478,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>74</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4132,7 +4486,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>65</v>
+        <v>20.71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4140,7 +4494,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>68</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4148,7 +4502,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>24</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -4156,7 +4510,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>46</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4164,7 +4518,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>32</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -4172,7 +4526,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>31</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4180,7 +4534,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>38</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4188,7 +4542,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>37</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4196,7 +4550,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5">
-        <v>9</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4204,7 +4558,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>39</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4212,7 +4566,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5">
-        <v>35</v>
+        <v>20.079999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4220,7 +4574,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>42</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4228,7 +4582,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>38</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4236,7 +4590,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>30</v>
+        <v>20.46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4244,7 +4598,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5">
-        <v>45</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4252,7 +4606,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>49</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4260,7 +4614,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5">
-        <v>17</v>
+        <v>21.03</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4268,7 +4622,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5">
-        <v>6</v>
+        <v>21.11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -4276,7 +4630,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5">
-        <v>11</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -4284,7 +4638,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5">
-        <v>17</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -4292,7 +4646,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5">
-        <v>69</v>
+        <v>20.43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4300,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -4308,7 +4662,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5">
-        <v>25</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -4316,7 +4670,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5">
-        <v>27</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -4324,7 +4678,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5">
-        <v>14</v>
+        <v>19.440000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -4332,7 +4686,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5">
-        <v>20</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4340,7 +4694,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5">
-        <v>10</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4348,7 +4702,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5">
-        <v>4</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -4356,7 +4710,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5">
-        <v>8</v>
+        <v>18.760000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -4364,7 +4718,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5">
-        <v>38</v>
+        <v>18.64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -4372,7 +4726,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5">
-        <v>37</v>
+        <v>18.649999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -4380,7 +4734,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5">
-        <v>42</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -4388,7 +4742,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5">
-        <v>12</v>
+        <v>18.97</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -4396,7 +4750,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5">
-        <v>7</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -4404,7 +4758,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5">
-        <v>5</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -4412,7 +4766,479 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>10</v>
+        <v>19.489999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>19.579999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>19.72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>20.059999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>19.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>19.89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>19.97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>20.94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
+        <v>21.13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2">
+        <v>21.24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <v>21.38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <v>21.69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
+        <v>21.87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <v>22.06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
+        <v>22.76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>23.22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2">
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2">
+        <v>23.48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2">
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>23.51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2">
+        <v>23.46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
+        <v>23.37</v>
       </c>
     </row>
   </sheetData>
